--- a/stats/austroplaca/month_temp_stats_X3.xlsx
+++ b/stats/austroplaca/month_temp_stats_X3.xlsx
@@ -570,13 +570,13 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.53692307692308</v>
+        <v>-5.23035714285714</v>
       </c>
       <c r="D13" t="n">
-        <v>2.3</v>
+        <v>6.8</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.7</v>
+        <v>-12.2</v>
       </c>
     </row>
     <row r="14">
@@ -637,15 +637,9 @@
       <c r="B17" t="n">
         <v>2</v>
       </c>
-      <c r="C17" t="n">
-        <v>-7.35543964232488</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-15.9</v>
-      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stats/austroplaca/month_temp_stats_X3.xlsx
+++ b/stats/austroplaca/month_temp_stats_X3.xlsx
@@ -637,9 +637,15 @@
       <c r="B17" t="n">
         <v>2</v>
       </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="C17" t="n">
+        <v>-7.35543964232488</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-15.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stats/austroplaca/month_temp_stats_X3.xlsx
+++ b/stats/austroplaca/month_temp_stats_X3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">min_temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_temp</t>
   </si>
 </sst>
 </file>
@@ -374,6 +377,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -391,6 +397,9 @@
       <c r="E2" t="n">
         <v>-16.7</v>
       </c>
+      <c r="F2" t="n">
+        <v>4.15341136580214</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -408,6 +417,9 @@
       <c r="E3" t="n">
         <v>-4.4</v>
       </c>
+      <c r="F3" t="n">
+        <v>3.34061940946596</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -425,6 +437,9 @@
       <c r="E4" t="n">
         <v>-6.7</v>
       </c>
+      <c r="F4" t="n">
+        <v>2.92543810392176</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -442,6 +457,9 @@
       <c r="E5" t="n">
         <v>-7.4</v>
       </c>
+      <c r="F5" t="n">
+        <v>2.23659585411325</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -459,6 +477,9 @@
       <c r="E6" t="n">
         <v>-18.4</v>
       </c>
+      <c r="F6" t="n">
+        <v>3.38340271378673</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -476,6 +497,9 @@
       <c r="E7" t="n">
         <v>-7.2</v>
       </c>
+      <c r="F7" t="n">
+        <v>3.84360641907832</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -493,6 +517,9 @@
       <c r="E8" t="n">
         <v>-7.9</v>
       </c>
+      <c r="F8" t="n">
+        <v>2.6684827713548</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -510,6 +537,9 @@
       <c r="E9" t="n">
         <v>-15.2</v>
       </c>
+      <c r="F9" t="n">
+        <v>3.33033984548803</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -527,6 +557,9 @@
       <c r="E10" t="n">
         <v>-19.4</v>
       </c>
+      <c r="F10" t="n">
+        <v>3.077139100033</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -544,6 +577,9 @@
       <c r="E11" t="n">
         <v>-9.2</v>
       </c>
+      <c r="F11" t="n">
+        <v>4.54695424496783</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -561,6 +597,9 @@
       <c r="E12" t="n">
         <v>-6.9</v>
       </c>
+      <c r="F12" t="n">
+        <v>2.51979465348512</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -578,6 +617,9 @@
       <c r="E13" t="n">
         <v>-12.2</v>
       </c>
+      <c r="F13" t="n">
+        <v>3.86815126501919</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -595,6 +637,9 @@
       <c r="E14" t="n">
         <v>-19.2</v>
       </c>
+      <c r="F14" t="n">
+        <v>4.44997724283534</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -612,6 +657,9 @@
       <c r="E15" t="n">
         <v>-7.2</v>
       </c>
+      <c r="F15" t="n">
+        <v>3.29938177983242</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -629,6 +677,9 @@
       <c r="E16" t="n">
         <v>-9.2</v>
       </c>
+      <c r="F16" t="n">
+        <v>2.97227958642577</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -645,6 +696,9 @@
       </c>
       <c r="E17" t="n">
         <v>-15.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.75335425017699</v>
       </c>
     </row>
   </sheetData>
